--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-01.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-01.xlsx
@@ -72486,7 +72486,11 @@
           <t>Fed Balance SheetJUN/18</t>
         </is>
       </c>
-      <c r="C2649" t="inlineStr"/>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>$6.68T</t>
+        </is>
+      </c>
       <c r="D2649" t="inlineStr">
         <is>
           <t>$6.68T</t>
@@ -74869,7 +74873,11 @@
         </is>
       </c>
       <c r="C2739" t="inlineStr"/>
-      <c r="D2739" t="inlineStr"/>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>$6.68T</t>
+        </is>
+      </c>
       <c r="E2739" t="inlineStr"/>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr">
